--- a/biology/Histoire de la zoologie et de la botanique/Richard_Sumner_Cowan/Richard_Sumner_Cowan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Sumner_Cowan/Richard_Sumner_Cowan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard Sumner Cowan, né le 23 janvier 1921 à Crawfordsville (Indiana) et mort le 17 novembre 1997 à Perth (Australie-Occidentale), est un botaniste américain[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Sumner Cowan, né le 23 janvier 1921 à Crawfordsville (Indiana) et mort le 17 novembre 1997 à Perth (Australie-Occidentale), est un botaniste américain,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Frans A. Stafleu et Richard S. Cowan, Taxonomic literature : A selective guide to botanical publications and collections with dates, commentaries and types, Utrecht, Bohn, Scheltema &amp; Holkema, coll. « Regnum vegetabile » (no 94, 98, 105, 110, 112, 115, 116), 1976–1988, 2e éd., TL-2 en sept volumes (ISBN 978-90-313-0224-6 et 90-313-0224-4, ISSN 0080-0694, SUDOC 017733170, présentation en ligne).
 (en) Frans A. Stafleu et Richard S. Cowan, « The Making of a Book : An Interim Report on TL-2 », Taxon, International Association for Plant Taxonomy (IAPT), vol. 28, nos 1/3,‎ avril 1979, p. 77-86 (ISSN 0040-0262, DOI 10.2307/1219562, JSTOR 1219562).</t>
